--- a/Análises Esportivas/ciclos de Netuno/16 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/16 - editável_ciclos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">25-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-11</t>
   </si>
 </sst>
 </file>
@@ -1371,11 +1374,11 @@
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>4.52</v>
+        <v>6.08</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>4.5</v>
+        <v>5.56</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
@@ -1405,19 +1408,19 @@
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>7.53</v>
+        <v>9.09</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>7.53</v>
+        <v>10.15</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>9.03</v>
+        <v>10.15</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>12.03</v>
+        <v>13.15</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>3.03</v>
+        <v>4.15</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1441,11 +1444,11 @@
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0.0199999999999996</v>
+        <v>1.58</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
@@ -4009,8 +4012,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4127,14 +4130,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="87"/>
+      <c r="N3" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>4.52</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4190,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>1.52</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,14 +4213,16 @@
         <f aca="false">D5*J5</f>
         <v>0.157022455078125</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>1.14</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.252212389380531</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.982977544921875</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!D$5)</f>
@@ -4231,7 +4238,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.52</v>
+        <v>6.08</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -4239,7 +4246,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.506666666666667</v>
+        <v>1.02666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4255,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -4256,20 +4263,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.262301203125</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.160373780429906</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.42</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.0742049469964664</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.259626219570094</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!D$5)</f>
@@ -4285,7 +4294,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>1.52</v>
+        <v>3.08</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4297,7 +4306,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -4305,7 +4314,7 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.27472111875</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
@@ -4334,7 +4343,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.506666666666667</v>
+        <v>1.02666666666667</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -4342,7 +4351,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>1.2164375</v>
+        <v>2.45904126449197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4449,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0.0199999999999996</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6415,8 +6424,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6475,7 +6484,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="87"/>
+      <c r="N2" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -6505,14 +6516,16 @@
         <f aca="false">D3*J3</f>
         <v>0.225</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>1.06</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.235555555555556</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.225</v>
+        <v>0.835</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!E4</f>
@@ -6530,7 +6543,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>4.5</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6539,7 +6552,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -6547,7 +6560,7 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.27105</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
@@ -6579,7 +6592,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6625,7 +6638,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.5</v>
+        <v>5.56</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -6633,7 +6646,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>0.235555555555556</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +6692,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6728,7 +6741,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>0.235555555555556</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -6736,7 +6749,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>-0.225</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,7 +6847,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>0</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8817,7 +8830,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/Análises Esportivas/ciclos de Netuno/16 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/16 - editável_ciclos.xlsx
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>5.56</v>
+        <v>0.93</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
@@ -1412,15 +1412,15 @@
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>10.15</v>
+        <v>5.52</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>10.15</v>
+        <v>5.52</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>13.15</v>
+        <v>8.52</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>4.15</v>
+        <v>-0.48</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>-0.44</v>
+        <v>-5.07</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
@@ -6425,7 +6425,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>5.56</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,14 +6566,16 @@
         <f aca="false">D4*J4</f>
         <v>0.23034375</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>-4.63</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>-0.83273381294964</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>-4.86034375</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!E$5)</f>
@@ -6592,7 +6594,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>1.06</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6603,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -6609,7 +6611,7 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.0442040625</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
@@ -6638,7 +6640,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>5.56</v>
+        <v>0.93</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -6646,7 +6648,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.235555555555556</v>
+        <v>-0.793333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,7 +6694,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>1.06</v>
+        <v>-3.57</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6741,7 +6743,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.235555555555556</v>
+        <v>-0.793333333333333</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -6749,7 +6751,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>0.835</v>
+        <v>-4.02534375</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +6849,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>-0.44</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
